--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3338.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3338.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.128095053421774</v>
+        <v>1.550712704658508</v>
       </c>
       <c r="B1">
-        <v>2.700281181800219</v>
+        <v>4.22331428527832</v>
       </c>
       <c r="C1">
-        <v>8.232078032864491</v>
+        <v>3.34261155128479</v>
       </c>
       <c r="D1">
-        <v>2.190825641463894</v>
+        <v>1.929315447807312</v>
       </c>
       <c r="E1">
-        <v>1.247848835759131</v>
+        <v>0.7013711929321289</v>
       </c>
     </row>
   </sheetData>
